--- a/Season_Trophies/77.xlsx
+++ b/Season_Trophies/77.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,4075 +396,2779 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25942</t>
+          <t>25025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4415</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5597</t>
+          <t>35101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6138</t>
+          <t>3906</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>9322</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6452</t>
+          <t>5540</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>24233</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Arlen Chang"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6774</t>
+          <t>4477</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>27403</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>7609072</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>死地後生亡地後存</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7063</t>
+          <t>4261</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1596</t>
+          <t>7651</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6992</t>
+          <t>5800</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6887</t>
+          <t>23308</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5979</t>
+          <t>4527</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5513</t>
+          <t>11920</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5289</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4218</t>
+          <t>7745</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6344</t>
+          <t>5779</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>10057</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7347</t>
+          <t>5458</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Kouen ᶻᵍˣ"</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6593</t>
+          <t>7320</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5807</t>
+          <t>5349</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6113</t>
+          <t>6168</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>19244</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7426</t>
+          <t>4712</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3832</t>
+          <t>15910</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6416</t>
+          <t>4938</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>8130</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6996</t>
+          <t>5713</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6622</t>
+          <t>16755</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6019</t>
+          <t>4869</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6058</t>
+          <t>22164</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6083</t>
+          <t>4574</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>34953</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6639</t>
+          <t>3912</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>9724</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7100</t>
+          <t>5494</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>8120</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6224</t>
+          <t>5715</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3333</t>
+          <t>11021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6522</t>
+          <t>5365</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>15509</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6127</t>
+          <t>4971</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2276</t>
+          <t>16983</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>耀翔zgx</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6795</t>
+          <t>4853</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>48808</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>48291467</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>㊥随心所欲</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7220</t>
+          <t>3338</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6201</t>
+          <t>12922</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>5218</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>51479</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>24883207</t>
+          <t>52074014</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>可耐的狸崽</t>
+          <t>Sang</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6451</t>
+          <t>3236</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>69124</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>52646612</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sanchez</t>
+          <t>中国心官方特使</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7154</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>22662</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TIGRESSᶻᵍˣ</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6521</t>
+          <t>4553</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5316</t>
+          <t>36973</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>3837</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>35337</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7065</t>
+          <t>3898</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3761</t>
+          <t>15674</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6429</t>
+          <t>4959</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>49777</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6638</t>
+          <t>3301</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6643</t>
+          <t>39879</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>29393865</t>
+          <t>57531381</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>kraken</t>
+          <t>Dengyi㊥</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6017</t>
+          <t>3705</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5088</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>57545497</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>冰霜冻九天</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6209</t>
+          <t>1990</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6539</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>57812827</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>我爱艺术战争</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>1554</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3345</t>
+          <t>95569</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>㊥SKIPLEGGANDISBⓏ</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6520</t>
+          <t>2194</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4349</t>
+          <t>97623</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>57839269</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"Nee modda"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6322</t>
+          <t>2174</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>57879394</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>Player-57879394</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6988</t>
+          <t>1728</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4989</t>
+          <t>89762</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>57896371</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>ZGX单兵高手</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6222</t>
+          <t>2272</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>84449</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>57903080</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>Player-57903080</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7157</t>
+          <t>2370</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3739</t>
+          <t>48210</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"☆梅海听雪☆    ㊥"</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6434</t>
+          <t>3362</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>59226</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>8263904</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Cjhao Cjhao"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>2907</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7330</t>
+          <t>55755</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5868</t>
+          <t>3043</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5854</t>
+          <t>21834</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6107</t>
+          <t>4589</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3847</t>
+          <t>32344</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6413</t>
+          <t>4019</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>11682</t>
+          <t>22800</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5308</t>
+          <t>4548</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>26988</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6176</t>
+          <t>4284</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5018</t>
+          <t>70934</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>28603793</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>AFGHANISTAN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6218</t>
+          <t>2600</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>25025</t>
+          <t>28462</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4415</t>
+          <t>4205</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>35101</t>
+          <t>18365</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>4763</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9322</t>
+          <t>20568</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>4644</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>24233</t>
+          <t>63278</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>38548732</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Ping Xiao Zhang"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4477</t>
+          <t>2784</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>27403</t>
+          <t>57992</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7609072</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>死地後生亡地後存</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4261</t>
+          <t>2955</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7651</t>
+          <t>28339</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5800</t>
+          <t>4211</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>23308</t>
+          <t>38413</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>3777</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>11920</t>
+          <t>55117</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5289</t>
+          <t>3071</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>30992</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>4077</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10057</t>
+          <t>46163</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5458</t>
+          <t>3441</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>29925</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7320</t>
+          <t>4131</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5349</t>
+          <t>81026</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>50329334</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>黑利爱阿琦儿</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>2440</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>19244</t>
+          <t>89327</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>52471411</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>小鬼子死亡</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4712</t>
+          <t>2279</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>15910</t>
+          <t>42944</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>52653694</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Zion32</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>3573</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8130</t>
+          <t>19687</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>4689</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>16755</t>
+          <t>79750</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>53978051</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>Player-1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>2463</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>22164</t>
+          <t>38110</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4574</t>
+          <t>3791</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>34953</t>
+          <t>32474</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>4013</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9724</t>
+          <t>86392</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>54615085</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"㊥wu tiger"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5494</t>
+          <t>2331</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8120</t>
+          <t>25596</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>4376</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>11021</t>
+          <t>44466</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5365</t>
+          <t>3508</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>15509</t>
+          <t>24444</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4971</t>
+          <t>4460</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16983</t>
+          <t>45582</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4853</t>
+          <t>3465</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>48808</t>
+          <t>37454</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>48291467</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥随心所欲</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3338</t>
+          <t>3819</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>12922</t>
+          <t>30781</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>55647611</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>意大利开炮</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5218</t>
+          <t>4087</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>51479</t>
+          <t>58239</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>52074014</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sang</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>2943</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>69124</t>
+          <t>53749</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>52646612</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中国心官方特使</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>3133</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>22662</t>
+          <t>48688</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"㊥ go策划我要阿li"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>3343</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>36973</t>
+          <t>40531</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>56689806</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>无铅皮蛋QAQ</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3837</t>
+          <t>3678</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>35337</t>
+          <t>48475</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3898</t>
+          <t>3350</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>15674</t>
+          <t>84030</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>57291285</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>怀里一只猫</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>2378</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>49777</t>
+          <t>74270</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>2540</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>39879</t>
+          <t>58677</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>57531381</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dengyi㊥</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>2927</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29675</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>57545497</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>冰霜冻九天</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>4143</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37376</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>57812827</t>
+          <t>51816877</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>我爱艺术战争</t>
+          <t>且行且珍惜</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>3822</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>95569</t>
+          <t>51737</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>3226</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>97623</t>
+          <t>56352</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>57839269</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Nee modda"</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>3018</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85920</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>57879394</t>
+          <t>56383012</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Player-57879394</t>
+          <t>Osama</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>2340</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>89762</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>57896371</t>
+          <t>56483876</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ZGX单兵高手</t>
+          <t>Player-56483876</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>1200</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>84449</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>57903080</t>
+          <t>56701761</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Player-57903080</t>
+          <t>消逝　friendshi゜</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2370</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>48210</t>
+          <t>54162</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>57549577</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Lijia</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3362</t>
+          <t>3113</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>59226</t>
+          <t>80184</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>8263904</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Cjhao Cjhao"</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2907</t>
+          <t>2455</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>55755</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>57809206</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>"messi super"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>1758</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21834</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>1448</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>32344</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>57856989</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Player-57856989</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>1614</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>22800</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>57857704</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>龍龙尨我帅</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4548</t>
+          <t>1403</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>26988</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>57857755</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Player-57857755</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4284</t>
+          <t>1454</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>70934</t>
+          <t>86473</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>28603793</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>AFGHANISTAN</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>2329</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>28462</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>5920</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>18365</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20568</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>63278</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>38548732</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Ping Xiao Zhang"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>57992</t>
+          <t>42132</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2955</t>
+          <t>3608</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>28339</t>
+          <t>77086</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4211</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>38413</t>
+          <t>48252</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
-        <is>
-          <t>3777</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>55117</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>47227626</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Player-47227626</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>3071</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>30992</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>47430231</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Kentantrino</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>4077</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>46163</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>47459684</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>㊥阿闹切克闹</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>3441</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>29925</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>48634530</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>leezhenrui</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>4131</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>81026</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>50329334</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>黑利爱阿琦儿</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>2440</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>89327</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>52471411</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>小鬼子死亡</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>2279</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>42944</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>52653694</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Zion32</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>3573</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>19687</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>53060417</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>㊥老纳信耶稣</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>79750</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>53978051</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Player-1</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>2463</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>38110</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>54085771</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>㊥Matthieu</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>3791</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>32474</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>54588689</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>㊥墨衍枫迹☜</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>4013</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>86392</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>54615085</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"㊥wu tiger"</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>2331</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>25596</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>54698813</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>閃亮唐老鴨</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>44466</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>54778421</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Emma</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>3508</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>24444</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>54915122</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>平胸救世界</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>45582</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>55499394</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Player-55499394</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>3465</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>37454</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>55634661</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Opalus</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>3819</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>30781</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>55647611</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>意大利开炮</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>4087</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>58239</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>55810157</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Beard</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>2943</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>53749</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>56379103</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Globalking</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>3133</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>48688</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>56585361</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>"㊥ go策划我要阿li"</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>3343</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>40531</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>56689806</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>无铅皮蛋QAQ</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>3678</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>48475</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>56700848</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>工口漫画老师</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>3350</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>84030</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>57291285</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>怀里一只猫</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>2378</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>74270</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>9541747</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>豹子头林冲</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>2540</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>58677</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>41849539</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>三号馆馆主</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>2927</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>29675</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>47622456</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>伊恩</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>4143</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>37376</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>51816877</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>且行且珍惜</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>3822</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>51737</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>55210350</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>一个过客而已</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>3226</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>56352</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>56241637</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Player-14day</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>3018</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>85920</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>56383012</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Osama</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2340</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>56483876</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Player-56483876</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>56701761</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>消逝　friendshi゜</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>1120</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>54162</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>57549577</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Lijia</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>3113</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>80184</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>57722377</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>VI空白IV</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>2455</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>57809206</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>"messi super"</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>1758</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>57847993</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>龘梦心裘千仞</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>1448</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>57856989</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Player-57856989</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>1614</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>57857704</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>龍龙尨我帅</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>1403</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>57857755</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Player-57857755</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>1454</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>86473</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>57867293</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Player-57867293</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>2329</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>7108</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>6010122</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>"Edward Peng"</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>5920</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>8850180</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>30624300</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>9195340</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Namllllllik</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>12648101</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>"player 198827"</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>42132</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>15755724</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>"Last Good"</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>3608</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>77086</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2500</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>48252</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>41848598</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>国家一级保护沙雕</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
         <is>
           <t>3360</t>
         </is>

--- a/Season_Trophies/77.xlsx
+++ b/Season_Trophies/77.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,2779 +396,4075 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25025</t>
+          <t>25942</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4415</t>
+          <t>4353</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>35101</t>
+          <t>5597</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>6138</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9322</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>6452</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24233</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Arlen Chang"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4477</t>
+          <t>6774</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27403</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7609072</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>死地後生亡地後存</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4261</t>
+          <t>7063</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7651</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5800</t>
+          <t>6992</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>23308</t>
+          <t>6887</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>5979</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11920</t>
+          <t>5513</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5289</t>
+          <t>6148</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>4218</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>6344</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10057</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5458</t>
+          <t>7347</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>3056</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>"Kouen ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7320</t>
+          <t>6593</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5349</t>
+          <t>5807</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6113</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>19244</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4712</t>
+          <t>7426</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15910</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>6416</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8130</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>6996</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16755</t>
+          <t>6622</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>6019</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22164</t>
+          <t>6058</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4574</t>
+          <t>6083</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>34953</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>6639</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9724</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5494</t>
+          <t>7100</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8120</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>6224</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11021</t>
+          <t>3333</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5365</t>
+          <t>6522</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15509</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4971</t>
+          <t>6127</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16983</t>
+          <t>2276</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>耀翔zgx</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4853</t>
+          <t>6795</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>48808</t>
+          <t>847</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>48291467</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥随心所欲</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3338</t>
+          <t>7220</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12922</t>
+          <t>6201</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5218</t>
+          <t>6066</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>51479</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>52074014</t>
+          <t>24883207</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sang</t>
+          <t>可耐的狸崽</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>6451</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>69124</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>52646612</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中国心官方特使</t>
+          <t>sanchez</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>7154</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>22662</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>TIGRESSᶻᵍˣ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>6521</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>36973</t>
+          <t>5316</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3837</t>
+          <t>6173</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>35337</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3898</t>
+          <t>7065</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>15674</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>6429</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>49777</t>
+          <t>2889</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>6638</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>39879</t>
+          <t>6643</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>57531381</t>
+          <t>29393865</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dengyi㊥</t>
+          <t>kraken</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>6017</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5088</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>57545497</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>冰霜冻九天</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>6209</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6539</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>57812827</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>我爱艺术战争</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>6029</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>95569</t>
+          <t>3345</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>㊥SKIPLEGGANDISBⓏ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>6520</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>97623</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>57839269</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Nee modda"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>6322</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>57879394</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Player-57879394</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>6988</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>89762</t>
+          <t>4989</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>57896371</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ZGX单兵高手</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>6222</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>84449</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>57903080</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Player-57903080</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2370</t>
+          <t>7157</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>48210</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"☆梅海听雪☆    ㊥"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3362</t>
+          <t>6434</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>59226</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8263904</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Cjhao Cjhao"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2907</t>
+          <t>6229</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>55755</t>
+          <t>7330</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>5868</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>21834</t>
+          <t>5854</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>6107</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>32344</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>6413</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>22800</t>
+          <t>11682</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4548</t>
+          <t>5308</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>26988</t>
+          <t>5290</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4284</t>
+          <t>6176</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>70934</t>
+          <t>5018</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>28603793</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AFGHANISTAN</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>6218</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>28462</t>
+          <t>25025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>4415</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18365</t>
+          <t>35101</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>3906</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20568</t>
+          <t>9322</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>5540</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>63278</t>
+          <t>24233</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>38548732</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Ping Xiao Zhang"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>4477</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>57992</t>
+          <t>27403</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>7609072</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>死地後生亡地後存</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2955</t>
+          <t>4261</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>28339</t>
+          <t>7651</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4211</t>
+          <t>5800</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>38413</t>
+          <t>23308</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3777</t>
+          <t>4527</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>55117</t>
+          <t>11920</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>5289</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30992</t>
+          <t>7745</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>5779</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>46163</t>
+          <t>10057</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>5458</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>29925</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4131</t>
+          <t>7320</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>81026</t>
+          <t>5349</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>50329334</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>黑利爱阿琦儿</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>6168</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>89327</t>
+          <t>19244</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>52471411</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>小鬼子死亡</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>4712</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>42944</t>
+          <t>15910</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>52653694</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Zion32</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>4938</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>19687</t>
+          <t>8130</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>5713</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>79750</t>
+          <t>16755</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>53978051</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Player-1</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>4869</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>38110</t>
+          <t>22164</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3791</t>
+          <t>4574</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>32474</t>
+          <t>34953</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4013</t>
+          <t>3912</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>86392</t>
+          <t>9724</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>54615085</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"㊥wu tiger"</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>5494</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>25596</t>
+          <t>8120</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4376</t>
+          <t>5715</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>44466</t>
+          <t>11021</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3508</t>
+          <t>5365</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>24444</t>
+          <t>15509</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4460</t>
+          <t>4971</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>45582</t>
+          <t>16983</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3465</t>
+          <t>4853</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>37454</t>
+          <t>48808</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>48291467</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>㊥随心所欲</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3819</t>
+          <t>3338</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30781</t>
+          <t>12922</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>55647611</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>意大利开炮</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4087</t>
+          <t>5218</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>58239</t>
+          <t>51479</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>52074014</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Sang</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>3236</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>53749</t>
+          <t>69124</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>52646612</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>中国心官方特使</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>48688</t>
+          <t>22662</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要阿li"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>4553</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>40531</t>
+          <t>36973</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>56689806</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>无铅皮蛋QAQ</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3678</t>
+          <t>3837</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>48475</t>
+          <t>35337</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3350</t>
+          <t>3898</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>84030</t>
+          <t>15674</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>57291285</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>怀里一只猫</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2378</t>
+          <t>4959</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>74270</t>
+          <t>49777</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>3301</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>58677</t>
+          <t>39879</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>57531381</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Dengyi㊥</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>3705</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>29675</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>57545497</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>冰霜冻九天</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4143</t>
+          <t>1990</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>37376</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>51816877</t>
+          <t>57812827</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>且行且珍惜</t>
+          <t>我爱艺术战争</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3822</t>
+          <t>1554</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>51737</t>
+          <t>95569</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3226</t>
+          <t>2194</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>56352</t>
+          <t>97623</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>57839269</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>"Nee modda"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3018</t>
+          <t>2174</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>85920</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56383012</t>
+          <t>57879394</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Osama</t>
+          <t>Player-57879394</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2340</t>
+          <t>1728</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89762</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>56483876</t>
+          <t>57896371</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Player-56483876</t>
+          <t>ZGX单兵高手</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>2272</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>84449</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>56701761</t>
+          <t>57903080</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>消逝　friendshi゜</t>
+          <t>Player-57903080</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>2370</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>54162</t>
+          <t>48210</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>57549577</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Lijia</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>3362</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>80184</t>
+          <t>59226</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>8263904</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>"Cjhao Cjhao"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2907</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55755</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>57809206</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"messi super"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>3043</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21834</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>4589</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32344</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>57856989</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Player-57856989</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>4019</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22800</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>57857704</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>龍龙尨我帅</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>4548</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26988</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>57857755</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Player-57857755</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>4284</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>86473</t>
+          <t>70934</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>28603793</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>AFGHANISTAN</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>2600</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>28462</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>5920</t>
+          <t>4205</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18365</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4763</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20568</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4644</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63278</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>38548732</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Ping Xiao Zhang"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2784</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>42132</t>
+          <t>57992</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>2955</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>77086</t>
+          <t>28339</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>4211</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>38413</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>46289694</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>㊥Vincent</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>3777</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>55117</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>47227626</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Player-47227626</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>3071</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>30992</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>47430231</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Kentantrino</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>4077</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>46163</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>47459684</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>㊥阿闹切克闹</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>3441</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>29925</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>48634530</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>leezhenrui</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>81026</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>50329334</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>黑利爱阿琦儿</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2440</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>89327</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>52471411</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>小鬼子死亡</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2279</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>42944</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>52653694</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Zion32</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>3573</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>19687</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>53060417</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>㊥老纳信耶稣</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>79750</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>53978051</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Player-1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2463</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>38110</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>54085771</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>㊥Matthieu</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>32474</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>54588689</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>㊥墨衍枫迹☜</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>4013</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>86392</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>54615085</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>"㊥wu tiger"</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2331</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>25596</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>54698813</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>閃亮唐老鴨</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>44466</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>54778421</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Emma</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>3508</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>24444</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>54915122</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>平胸救世界</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>45582</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>55499394</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Player-55499394</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>3465</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>37454</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>55634661</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Opalus</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>3819</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>30781</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>55647611</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>意大利开炮</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>4087</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>58239</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>55810157</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Beard</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2943</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>53749</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>56379103</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Globalking</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>3133</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>48688</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>56585361</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>"㊥ go策划我要阿li"</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>40531</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>56689806</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>无铅皮蛋QAQ</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>48475</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>56700848</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>工口漫画老师</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>3350</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>84030</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>57291285</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>怀里一只猫</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2378</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>74270</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>9541747</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>豹子头林冲</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2540</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>58677</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>41849539</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>三号馆馆主</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2927</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>29675</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>47622456</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>伊恩</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>4143</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>37376</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>51816877</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>且行且珍惜</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3822</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>51737</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>55210350</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>一个过客而已</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>3226</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>56352</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>56241637</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Player-14day</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>85920</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>56383012</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Osama</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>56483876</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Player-56483876</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>56701761</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>消逝　friendshi゜</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>54162</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>57549577</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Lijia</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>80184</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>57722377</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>VI空白IV</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2455</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>57809206</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>"messi super"</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1758</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>57847993</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>龘梦心裘千仞</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>57856989</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Player-57856989</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>57857704</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>龍龙尨我帅</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>57857755</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Player-57857755</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1454</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>86473</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>57867293</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Player-57867293</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2329</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>6010122</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>"Edward Peng"</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>5920</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>9195340</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Namllllllik</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>12648101</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>"player 198827"</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>42132</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>15755724</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>"Last Good"</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>77086</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>48252</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>41848598</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>国家一级保护沙雕</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>3360</t>
         </is>
